--- a/64-units/output_df_validation.xlsx
+++ b/64-units/output_df_validation.xlsx
@@ -458,1311 +458,1311 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B2" t="n">
-        <v>0.011843</v>
+        <v>0.009349799999999998</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002522150985896587</v>
+        <v>-0.126702219247818</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007920270198864755</v>
+        <v>0.01965890799178318</v>
       </c>
       <c r="E2" t="n">
-        <v>2.913969103741606e-05</v>
+        <v>0.02142157956684673</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.023687</v>
+        <v>0.011843</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05115048214793205</v>
+        <v>-0.0884476974606514</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0541099401604743</v>
+        <v>0.007920270198864755</v>
       </c>
       <c r="E3" t="n">
-        <v>8.758391728000525e-06</v>
+        <v>0.00928678519082555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03553</v>
+        <v>0.0187</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1222077384591103</v>
+        <v>-0.1896277815103531</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1273505335547468</v>
+        <v>0.1082955994857423</v>
       </c>
       <c r="E4" t="n">
-        <v>2.644834139570317e-05</v>
+        <v>0.08875834094414461</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>0.047374</v>
+        <v>0.023687</v>
       </c>
       <c r="C5" t="n">
-        <v>0.187325045466423</v>
+        <v>-0.1170790567994118</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1919797352175346</v>
+        <v>0.0541099401604743</v>
       </c>
       <c r="E5" t="n">
-        <v>2.166613667910292e-05</v>
+        <v>0.02930567268013188</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B6" t="n">
-        <v>0.059217</v>
+        <v>0.028049</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2117197960615158</v>
+        <v>-0.230850026011467</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2179247732510162</v>
+        <v>0.2058255373017932</v>
       </c>
       <c r="E6" t="n">
-        <v>3.850174192222013e-05</v>
+        <v>0.1906855475949531</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07126</v>
+        <v>0.03553</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2148085087537766</v>
+        <v>-0.1440749764442444</v>
       </c>
       <c r="D7" t="n">
-        <v>0.219878394894207</v>
+        <v>0.1273505335547468</v>
       </c>
       <c r="E7" t="n">
-        <v>2.570374547692867e-05</v>
+        <v>0.07367180747821246</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B8" t="n">
-        <v>0.083303</v>
+        <v>0.037399</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1995201855897903</v>
+        <v>-0.1729613840579987</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2034614812527241</v>
+        <v>0.2414585510047784</v>
       </c>
       <c r="E8" t="n">
-        <v>1.553381150266036e-05</v>
+        <v>0.1717438825774364</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>0.095346</v>
+        <v>0.047374</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1757675558328629</v>
+        <v>-0.144399493932724</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1805149753132994</v>
+        <v>0.1919797352175346</v>
       </c>
       <c r="E9" t="n">
-        <v>2.253799172322848e-05</v>
+        <v>0.1131509858037222</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="B10" t="n">
-        <v>0.10739</v>
+        <v>0.047456</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1523482352495193</v>
+        <v>-0.1408334076404572</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1570977750588763</v>
+        <v>0.2329512353912638</v>
       </c>
       <c r="E10" t="n">
-        <v>2.255812840066635e-05</v>
+        <v>0.1397149593663511</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="B11" t="n">
-        <v>0.11943</v>
+        <v>0.057512</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1311077922582626</v>
+        <v>-0.118890605866909</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1360699860823273</v>
+        <v>0.2013031654246226</v>
       </c>
       <c r="E11" t="n">
-        <v>2.462336754758539e-05</v>
+        <v>0.1025240511738936</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>0.13167</v>
+        <v>0.059217</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1128633394837379</v>
+        <v>-0.1577085703611374</v>
       </c>
       <c r="D12" t="n">
-        <v>0.117543720378003</v>
+        <v>0.2179247732510162</v>
       </c>
       <c r="E12" t="n">
-        <v>2.19059653154013e-05</v>
+        <v>0.1411004088332463</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1439</v>
+        <v>0.067569</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09622419625520706</v>
+        <v>-0.09923184663057327</v>
       </c>
       <c r="D13" t="n">
-        <v>0.101980439899076</v>
+        <v>0.1676413685637965</v>
       </c>
       <c r="E13" t="n">
-        <v>3.313434088758155e-05</v>
+        <v>0.07122131298818041</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>0.15613</v>
+        <v>0.07126</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08348309248685837</v>
+        <v>-0.158768817782402</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08919154132310828</v>
+        <v>0.219878394894207</v>
       </c>
       <c r="E14" t="n">
-        <v>3.258638811608292e-05</v>
+        <v>0.1433737116677652</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="B15" t="n">
-        <v>0.16836</v>
+        <v>0.077625</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07338067144155502</v>
+        <v>-0.07362481206655502</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07866825510110681</v>
+        <v>0.1388271247416783</v>
       </c>
       <c r="E15" t="n">
-        <v>2.795854095675907e-05</v>
+        <v>0.04513582545356956</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1806</v>
+        <v>0.083303</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06485455483198166</v>
+        <v>-0.149659052491188</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0697151321689032</v>
+        <v>0.2034614812527241</v>
       </c>
       <c r="E16" t="n">
-        <v>2.362521204819526e-05</v>
+        <v>0.1246941113515854</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B17" t="n">
-        <v>0.19301</v>
+        <v>0.088409</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05760393664240837</v>
+        <v>-0.05533470958471298</v>
       </c>
       <c r="D17" t="n">
-        <v>0.06229572164538796</v>
+        <v>0.1139147531533155</v>
       </c>
       <c r="E17" t="n">
-        <v>2.201284651418415e-05</v>
+        <v>0.02864538063711129</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>0.20542</v>
+        <v>0.095346</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05120943114161491</v>
+        <v>-0.1483177691698074</v>
       </c>
       <c r="D18" t="n">
-        <v>0.05608229531723823</v>
+        <v>0.1805149753132994</v>
       </c>
       <c r="E18" t="n">
-        <v>2.374480527407313e-05</v>
+        <v>0.1081309738442922</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="B19" t="n">
-        <v>0.21783</v>
+        <v>0.099192</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04692603275179863</v>
+        <v>-0.04104521125555038</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0509331388322084</v>
+        <v>0.09465407487349499</v>
       </c>
       <c r="E19" t="n">
-        <v>1.605689913965697e-05</v>
+        <v>0.01841429625593252</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B20" t="n">
-        <v>0.23025</v>
+        <v>0.10739</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04331552609801292</v>
+        <v>-0.146650955080986</v>
       </c>
       <c r="D20" t="n">
-        <v>0.04659979348688512</v>
+        <v>0.1570977750588763</v>
       </c>
       <c r="E20" t="n">
-        <v>1.078641228160941e-05</v>
+        <v>0.09226329106157889</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="B21" t="n">
-        <v>0.24266</v>
+        <v>0.10998</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03941657766699791</v>
+        <v>-0.02540489099919796</v>
       </c>
       <c r="D21" t="n">
-        <v>0.04284243071529115</v>
+        <v>0.08020059345053011</v>
       </c>
       <c r="E21" t="n">
-        <v>1.173646910850006e-05</v>
+        <v>0.01115251834586176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B22" t="n">
-        <v>0.25524</v>
+        <v>0.11943</v>
       </c>
       <c r="C22" t="n">
-        <v>0.03623805567622185</v>
+        <v>-0.134052500128746</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03955045321650252</v>
+        <v>0.1360699860823273</v>
       </c>
       <c r="E22" t="n">
-        <v>1.097197746485743e-05</v>
+        <v>0.0729661575568515</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="B23" t="n">
-        <v>0.26782</v>
+        <v>0.12076</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03326290473341942</v>
+        <v>-0.01196806784719229</v>
       </c>
       <c r="D23" t="n">
-        <v>0.03670255228944378</v>
+        <v>0.06885854615452403</v>
       </c>
       <c r="E23" t="n">
-        <v>1.183117530966437e-05</v>
+        <v>0.006532941530982443</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2804</v>
+        <v>0.13167</v>
       </c>
       <c r="C24" t="n">
-        <v>0.03058641776442528</v>
+        <v>-0.1136813387274742</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03423437632453608</v>
+        <v>0.117543720378003</v>
       </c>
       <c r="E24" t="n">
-        <v>1.33076016562857e-05</v>
+        <v>0.05346502795833142</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="B25" t="n">
-        <v>0.29298</v>
+        <v>0.13229</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02840340510010719</v>
+        <v>0.003221282036975026</v>
       </c>
       <c r="D25" t="n">
-        <v>0.03206770187517696</v>
+        <v>0.05945595210429845</v>
       </c>
       <c r="E25" t="n">
-        <v>1.342707085578671e-05</v>
+        <v>0.003162338117580721</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="B26" t="n">
-        <v>0.30556</v>
+        <v>0.14381</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02660846337676048</v>
+        <v>0.01513136271387339</v>
       </c>
       <c r="D26" t="n">
-        <v>0.03013092342024505</v>
+        <v>0.05217957316655541</v>
       </c>
       <c r="E26" t="n">
-        <v>1.240772475794531e-05</v>
+        <v>0.001372569897746217</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3183</v>
+        <v>0.1439</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02495850250124931</v>
+        <v>-0.09704165905714035</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02837866976566381</v>
+        <v>0.101980439899076</v>
       </c>
       <c r="E27" t="n">
-        <v>1.169754411657253e-05</v>
+        <v>0.03960979587293798</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="B28" t="n">
-        <v>0.33104</v>
+        <v>0.15534</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02349455282092094</v>
+        <v>0.02626761235296726</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02681102379085171</v>
+        <v>0.04659047115751757</v>
       </c>
       <c r="E28" t="n">
-        <v>1.099897969439352e-05</v>
+        <v>0.0004130185899896879</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B29" t="n">
-        <v>0.34377</v>
+        <v>0.15613</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02212398126721382</v>
+        <v>-0.08344035595655441</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02540171375281381</v>
+        <v>0.08919154132310828</v>
       </c>
       <c r="E29" t="n">
-        <v>1.074353024715748e-05</v>
+        <v>0.02980177195837601</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B30" t="n">
-        <v>0.35651</v>
+        <v>0.16836</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02074157446622849</v>
+        <v>-0.06528099626302719</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0241221405575778</v>
+        <v>0.07866825510110681</v>
       </c>
       <c r="E30" t="n">
-        <v>1.142822709798079e-05</v>
+        <v>0.02072138696829463</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B31" t="n">
-        <v>0.36925</v>
+        <v>0.1806</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01867565885186195</v>
+        <v>-0.04840729385614395</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02294778591388828</v>
+        <v>0.0697151321689032</v>
       </c>
       <c r="E31" t="n">
-        <v>1.825106963409768e-05</v>
+        <v>0.01395290753004274</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B32" t="n">
-        <v>0.38213</v>
+        <v>0.19301</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01919221132993698</v>
+        <v>-0.03075063787400723</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02184881019161491</v>
+        <v>0.06229572164538796</v>
       </c>
       <c r="E32" t="n">
-        <v>7.057517511868473e-06</v>
+        <v>0.008657625019812544</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B33" t="n">
-        <v>0.39501</v>
+        <v>0.20542</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0183003693819046</v>
+        <v>-0.008358306251466274</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02083131086702007</v>
+        <v>0.05608229531723823</v>
       </c>
       <c r="E33" t="n">
-        <v>6.405664801078485e-06</v>
+        <v>0.004152591130536522</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B34" t="n">
-        <v>0.40789</v>
+        <v>0.21783</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01767687872052193</v>
+        <v>0.0144594544544816</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01988607688731721</v>
+        <v>0.0509331388322084</v>
       </c>
       <c r="E34" t="n">
-        <v>4.880556540171632e-06</v>
+        <v>0.001330329652086032</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B35" t="n">
-        <v>0.42077</v>
+        <v>0.23025</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01621079072356224</v>
+        <v>0.02835527993738651</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01900127828316104</v>
+        <v>0.04659979348688512</v>
       </c>
       <c r="E35" t="n">
-        <v>7.78682082027566e-06</v>
+        <v>0.0003328622746578384</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B36" t="n">
-        <v>0.43365</v>
+        <v>0.24266</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01508208643645048</v>
+        <v>0.03712663799524307</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01816597599347708</v>
+        <v>0.04284243071529115</v>
       </c>
       <c r="E36" t="n">
-        <v>9.510374799937705e-06</v>
+        <v>3.267028641855456e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4466600000000001</v>
+        <v>0.25524</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01425202470272779</v>
+        <v>0.04436973482370377</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01735611453034558</v>
+        <v>0.03955045321650252</v>
       </c>
       <c r="E37" t="n">
-        <v>9.635373657920204e-06</v>
+        <v>2.322547520950826e-05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B38" t="n">
-        <v>0.45967</v>
+        <v>0.26782</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01360611151903868</v>
+        <v>0.04988006502389908</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0165746835165611</v>
+        <v>0.03670255228944378</v>
       </c>
       <c r="E38" t="n">
-        <v>8.812419704474262e-06</v>
+        <v>0.0001736468418667315</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B39" t="n">
-        <v>0.47268</v>
+        <v>0.2804</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01414723228663206</v>
+        <v>0.05320442467927933</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01582032234155875</v>
+        <v>0.03423437632453608</v>
       </c>
       <c r="E39" t="n">
-        <v>2.799230331894595e-06</v>
+        <v>0.0003598627345812969</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B40" t="n">
-        <v>0.48569</v>
+        <v>0.29298</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01310064177960157</v>
+        <v>0.0532161071896553</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01509079743352646</v>
+        <v>0.03206770187517696</v>
       </c>
       <c r="E40" t="n">
-        <v>3.960719526849194e-06</v>
+        <v>0.0004472550473454558</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4987</v>
+        <v>0.30556</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0122364042326808</v>
+        <v>0.05235256999731064</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01438353870897308</v>
+        <v>0.03013092342024505</v>
       </c>
       <c r="E41" t="n">
-        <v>4.610186459282931e-06</v>
+        <v>0.0004938015765960107</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B42" t="n">
-        <v>0.51183</v>
+        <v>0.3183</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01145098637789488</v>
+        <v>0.05003995448350906</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01368783874728593</v>
+        <v>0.02837866976566381</v>
       </c>
       <c r="E42" t="n">
-        <v>5.003508522450362e-06</v>
+        <v>0.0004692112556275564</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B43" t="n">
-        <v>0.52496</v>
+        <v>0.33104</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01066454779356718</v>
+        <v>0.04379922896623611</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01300008975424694</v>
+        <v>0.02681102379085171</v>
       </c>
       <c r="E43" t="n">
-        <v>5.454756250095856e-06</v>
+        <v>0.0002885991150809575</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B44" t="n">
-        <v>0.53809</v>
+        <v>0.34377</v>
       </c>
       <c r="C44" t="n">
-        <v>0.009958366863429546</v>
+        <v>0.03794560581445694</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01231959562343109</v>
+        <v>0.02540171375281381</v>
       </c>
       <c r="E44" t="n">
-        <v>5.575401257058431e-06</v>
+        <v>0.0001573492280541535</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5512100000000001</v>
+        <v>0.35651</v>
       </c>
       <c r="C45" t="n">
-        <v>0.009337852708995342</v>
+        <v>0.03684643656015396</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01164579123485829</v>
+        <v>0.0241221405575778</v>
       </c>
       <c r="E45" t="n">
-        <v>5.326580239162435e-06</v>
+        <v>0.0001619077087611757</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B46" t="n">
-        <v>0.56434</v>
+        <v>0.36925</v>
       </c>
       <c r="C46" t="n">
-        <v>0.008721346966922283</v>
+        <v>0.03571517020463943</v>
       </c>
       <c r="D46" t="n">
-        <v>0.01098044079001627</v>
+        <v>0.02294778591388828</v>
       </c>
       <c r="E46" t="n">
-        <v>5.103504901541408e-06</v>
+        <v>0.0001630061016277194</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B47" t="n">
-        <v>0.57757</v>
+        <v>0.38213</v>
       </c>
       <c r="C47" t="n">
-        <v>0.008082087151706219</v>
+        <v>0.03740445524454117</v>
       </c>
       <c r="D47" t="n">
-        <v>0.01032462707730982</v>
+        <v>0.02184881019161491</v>
       </c>
       <c r="E47" t="n">
-        <v>5.028985317926203e-06</v>
+        <v>0.0002419780930126291</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5908</v>
+        <v>0.39501</v>
       </c>
       <c r="C48" t="n">
-        <v>0.007447506301105022</v>
+        <v>0.03741592913866043</v>
       </c>
       <c r="D48" t="n">
-        <v>0.009690952501335308</v>
+        <v>0.02083131086702007</v>
       </c>
       <c r="E48" t="n">
-        <v>5.033050853327705e-06</v>
+        <v>0.0002750495632160273</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6040300000000001</v>
+        <v>0.40789</v>
       </c>
       <c r="C49" t="n">
-        <v>0.006850938312709332</v>
+        <v>0.02959799207746983</v>
       </c>
       <c r="D49" t="n">
-        <v>0.00908395359296154</v>
+        <v>0.01988607688731721</v>
       </c>
       <c r="E49" t="n">
-        <v>4.986357241839848e-06</v>
+        <v>9.432129666071714e-05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B50" t="n">
-        <v>0.61726</v>
+        <v>0.42077</v>
       </c>
       <c r="C50" t="n">
-        <v>0.006252939812839031</v>
+        <v>0.0188316348940134</v>
       </c>
       <c r="D50" t="n">
-        <v>0.00850568542223273</v>
+        <v>0.01900127828316104</v>
       </c>
       <c r="E50" t="n">
-        <v>5.074862780642589e-06</v>
+        <v>2.877887948149587e-08</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B51" t="n">
-        <v>0.63049</v>
+        <v>0.43365</v>
       </c>
       <c r="C51" t="n">
-        <v>0.005679826252162457</v>
+        <v>0.003544756444171071</v>
       </c>
       <c r="D51" t="n">
-        <v>0.007957887309911326</v>
+        <v>0.01816597599347708</v>
       </c>
       <c r="E51" t="n">
-        <v>5.189562182831899e-06</v>
+        <v>0.0002137800611090082</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6438</v>
+        <v>0.4466600000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.005091558210551739</v>
+        <v>-0.01564233563840389</v>
       </c>
       <c r="D52" t="n">
-        <v>0.007427425902215232</v>
+        <v>0.01735611453034558</v>
       </c>
       <c r="E52" t="n">
-        <v>5.456277872957336e-06</v>
+        <v>0.001088897713539442</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6571199999999999</v>
+        <v>0.45967</v>
       </c>
       <c r="C53" t="n">
-        <v>0.004475991241633892</v>
+        <v>-0.0319824144244194</v>
       </c>
       <c r="D53" t="n">
-        <v>0.006917705736645741</v>
+        <v>0.0165746835165611</v>
       </c>
       <c r="E53" t="n">
-        <v>5.961969675150967e-06</v>
+        <v>0.002357791760449973</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6704399999999999</v>
+        <v>0.47268</v>
       </c>
       <c r="C54" t="n">
-        <v>0.003913174383342266</v>
+        <v>-0.04427870362997055</v>
       </c>
       <c r="D54" t="n">
-        <v>0.006425734893484416</v>
+        <v>0.01582032234155875</v>
       </c>
       <c r="E54" t="n">
-        <v>6.312960317125779e-06</v>
+        <v>0.003611892922726553</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B55" t="n">
-        <v>0.68375</v>
+        <v>0.48569</v>
       </c>
       <c r="C55" t="n">
-        <v>0.003353963606059551</v>
+        <v>-0.0568046048283577</v>
       </c>
       <c r="D55" t="n">
-        <v>0.005949240767824191</v>
+        <v>0.01509079743352646</v>
       </c>
       <c r="E55" t="n">
-        <v>6.735463546377125e-06</v>
+        <v>0.005168948866398137</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B56" t="n">
-        <v>0.69707</v>
+        <v>0.4987</v>
       </c>
       <c r="C56" t="n">
-        <v>0.002877618186175823</v>
+        <v>-0.0704972967505455</v>
       </c>
       <c r="D56" t="n">
-        <v>0.00548765828493849</v>
+        <v>0.01438353870897308</v>
       </c>
       <c r="E56" t="n">
-        <v>6.81230931714903e-06</v>
+        <v>0.007204756228305866</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B57" t="n">
-        <v>0.7104600000000001</v>
+        <v>0.51183</v>
       </c>
       <c r="C57" t="n">
-        <v>0.002475480549037457</v>
+        <v>-0.08472240716218948</v>
       </c>
       <c r="D57" t="n">
-        <v>0.005039635759694479</v>
+        <v>0.01368783874728593</v>
       </c>
       <c r="E57" t="n">
-        <v>6.574891944339559e-06</v>
+        <v>0.009684576499963423</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B58" t="n">
-        <v>0.72385</v>
+        <v>0.52496</v>
       </c>
       <c r="C58" t="n">
-        <v>0.002010907046496868</v>
+        <v>-0.09693673253059387</v>
       </c>
       <c r="D58" t="n">
-        <v>0.004609849108381418</v>
+        <v>0.01300008975424694</v>
       </c>
       <c r="E58" t="n">
-        <v>6.754499841032713e-06</v>
+        <v>0.01208610489408867</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B59" t="n">
-        <v>0.7372300000000001</v>
+        <v>0.53809</v>
       </c>
       <c r="C59" t="n">
-        <v>0.001611541025340557</v>
+        <v>-0.110652320086956</v>
       </c>
       <c r="D59" t="n">
-        <v>0.004199077826212207</v>
+        <v>0.01231959562343109</v>
       </c>
       <c r="E59" t="n">
-        <v>6.695346695865092e-06</v>
+        <v>0.01512209205348255</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B60" t="n">
-        <v>0.75062</v>
+        <v>0.5512100000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.001234765164554119</v>
+        <v>-0.1255704164505005</v>
       </c>
       <c r="D60" t="n">
-        <v>0.003807020023255061</v>
+        <v>0.01164579123485829</v>
       </c>
       <c r="E60" t="n">
-        <v>6.616495058110603e-06</v>
+        <v>0.01882828765155151</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B61" t="n">
-        <v>0.7640100000000001</v>
+        <v>0.56434</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0008272184059023857</v>
+        <v>-0.1382255554199219</v>
       </c>
       <c r="D61" t="n">
-        <v>0.003433977506835449</v>
+        <v>0.01098044079001627</v>
       </c>
       <c r="E61" t="n">
-        <v>6.795193010297352e-06</v>
+        <v>0.02226242930500008</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B62" t="n">
-        <v>0.77746</v>
+        <v>0.57757</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0004713339731097221</v>
+        <v>-0.1493829786777496</v>
       </c>
       <c r="D62" t="n">
-        <v>0.003075117239802261</v>
+        <v>0.01032462707730982</v>
       </c>
       <c r="E62" t="n">
-        <v>6.779687299908069e-06</v>
+        <v>0.0255065193360135</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B63" t="n">
-        <v>0.7909</v>
+        <v>0.5908</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0001317514106631279</v>
+        <v>-0.157109335064888</v>
       </c>
       <c r="D63" t="n">
-        <v>0.002735081501029562</v>
+        <v>0.009690952501335308</v>
       </c>
       <c r="E63" t="n">
-        <v>6.777327559407305e-06</v>
+        <v>0.02782233593217479</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B64" t="n">
-        <v>0.80435</v>
+        <v>0.6040300000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.0002077119424939156</v>
+        <v>-0.1607246398925781</v>
       </c>
       <c r="D64" t="n">
-        <v>0.002413417678815121</v>
+        <v>0.00908395359296154</v>
       </c>
       <c r="E64" t="n">
-        <v>6.870320491703654e-06</v>
+        <v>0.02883495842153727</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B65" t="n">
-        <v>0.81779</v>
+        <v>0.61726</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.0005429433658719063</v>
+        <v>-0.1638123989105225</v>
       </c>
       <c r="D65" t="n">
-        <v>0.002109737733066167</v>
+        <v>0.00850568542223273</v>
       </c>
       <c r="E65" t="n">
-        <v>7.036717012663305e-06</v>
+        <v>0.02969352218811053</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8312299999999999</v>
+        <v>0.63049</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.0008199410513043404</v>
+        <v>-0.1672281622886658</v>
       </c>
       <c r="D66" t="n">
-        <v>0.001824125696885316</v>
+        <v>0.007957887309911326</v>
       </c>
       <c r="E66" t="n">
-        <v>6.991088968882224e-06</v>
+        <v>0.03069015197395511</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B67" t="n">
-        <v>0.84472</v>
+        <v>0.6438</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.001130049116909504</v>
+        <v>-0.1709186285734177</v>
       </c>
       <c r="D67" t="n">
-        <v>0.001554380042882781</v>
+        <v>0.007427425902215232</v>
       </c>
       <c r="E67" t="n">
-        <v>7.206159913943112e-06</v>
+        <v>0.03180731514702542</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8582</v>
+        <v>0.6571199999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.001450617797672749</v>
+        <v>-0.1704754829406738</v>
       </c>
       <c r="D68" t="n">
-        <v>0.001302299740072238</v>
+        <v>0.006917705736645741</v>
       </c>
       <c r="E68" t="n">
-        <v>7.578554969623918e-06</v>
+        <v>0.0314683433891071</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B69" t="n">
-        <v>0.87169</v>
+        <v>0.6704399999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.001710315234959126</v>
+        <v>-0.1690478026866913</v>
       </c>
       <c r="D69" t="n">
-        <v>0.001068921405713607</v>
+        <v>0.006425734893484416</v>
       </c>
       <c r="E69" t="n">
-        <v>7.724156304857857e-06</v>
+        <v>0.03079096239090133</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8851700000000001</v>
+        <v>0.68375</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.001975704915821552</v>
+        <v>-0.1680205464363098</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0008551331565368653</v>
+        <v>0.005949240767824191</v>
       </c>
       <c r="E70" t="n">
-        <v>8.013644191913921e-06</v>
+        <v>0.03026548685985167</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B71" t="n">
-        <v>0.89866</v>
+        <v>0.69707</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.00220655370503664</v>
+        <v>-0.1651225686073303</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0006621855393274476</v>
+        <v>0.00548765828493849</v>
       </c>
       <c r="E71" t="n">
-        <v>8.229664852154639e-06</v>
+        <v>0.02910784952023145</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B72" t="n">
-        <v>0.91217</v>
+        <v>0.7104600000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.002417867071926594</v>
+        <v>-0.163121685385704</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0004915363260138777</v>
+        <v>0.005039635759694479</v>
       </c>
       <c r="E72" t="n">
-        <v>8.464628131947562e-06</v>
+        <v>0.02827822992936586</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9256799999999999</v>
+        <v>0.72385</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.002622206695377827</v>
+        <v>-0.1603535711765289</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0003450491165230952</v>
+        <v>0.004609849108381418</v>
       </c>
       <c r="E73" t="n">
-        <v>8.804607053259798e-06</v>
+        <v>0.02721293003209597</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B74" t="n">
-        <v>0.93919</v>
+        <v>0.7372300000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.002805848605930805</v>
+        <v>-0.1577627062797546</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0002238792052138856</v>
+        <v>0.004199077826212207</v>
       </c>
       <c r="E74" t="n">
-        <v>9.179250609623599e-06</v>
+        <v>0.02623161951078781</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B75" t="n">
-        <v>0.9527</v>
+        <v>0.75062</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.002925937063992023</v>
+        <v>-0.1549788117408752</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0001285644534905678</v>
+        <v>0.003807020023255061</v>
       </c>
       <c r="E75" t="n">
-        <v>9.329979520303454e-06</v>
+        <v>0.02521294036902669</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B76" t="n">
-        <v>0.96621</v>
+        <v>0.7640100000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.003022958524525166</v>
+        <v>-0.1518238931894302</v>
       </c>
       <c r="D76" t="n">
-        <v>5.930803224763762e-05</v>
+        <v>0.003433977506835449</v>
       </c>
       <c r="E76" t="n">
-        <v>9.500367127000072e-06</v>
+        <v>0.02410500641313835</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B77" t="n">
-        <v>0.97972</v>
+        <v>0.77746</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.003110100515186787</v>
+        <v>-0.1492635607719421</v>
       </c>
       <c r="D77" t="n">
-        <v>1.598175750321395e-05</v>
+        <v>0.003075117239802261</v>
       </c>
       <c r="E77" t="n">
-        <v>9.772390375626678e-06</v>
+        <v>0.02320707281836593</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B78" t="n">
-        <v>0.99324</v>
+        <v>0.7909</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.003187169320881367</v>
+        <v>-0.1468765884637833</v>
       </c>
       <c r="D78" t="n">
-        <v>-1.320761437083464e-06</v>
+        <v>0.002735081501029562</v>
       </c>
       <c r="E78" t="n">
-        <v>1.014963104371322e-05</v>
+        <v>0.02238365178966007</v>
       </c>
     </row>
   </sheetData>
